--- a/data/WallMart/2.xlsx
+++ b/data/WallMart/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\WallMart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\WallMart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A201295-E72A-4FAE-A405-4695FE8F99E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5738940-F65D-49BC-8021-1C0CA1DD3161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,178 +25,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Schedule Date</t>
-  </si>
-  <si>
-    <t>Scheduled Time</t>
-  </si>
-  <si>
-    <t>Reg NO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Vaishnavi V V</t>
   </si>
   <si>
-    <t>26th July</t>
-  </si>
-  <si>
-    <t>19BCE1497</t>
-  </si>
-  <si>
     <t>K Madhu Sudhan</t>
   </si>
   <si>
-    <t>19BCE0483</t>
-  </si>
-  <si>
     <t>ANIRUDH KUMAR</t>
   </si>
   <si>
-    <t>19BCI0246</t>
-  </si>
-  <si>
     <t>Pranjal Singh</t>
   </si>
   <si>
-    <t>19BCE1207</t>
-  </si>
-  <si>
     <t>Ayush Lodh</t>
   </si>
   <si>
-    <t>19BCE2553</t>
-  </si>
-  <si>
     <t>Parth Jaiswal</t>
   </si>
   <si>
-    <t>19BIT0014</t>
-  </si>
-  <si>
     <t>Subramanian Venkittanarayanan</t>
   </si>
   <si>
-    <t>19BAI1089</t>
-  </si>
-  <si>
     <t>ISHITA DUBEY</t>
   </si>
   <si>
-    <t>19BIT0328</t>
-  </si>
-  <si>
     <t>Hashwanth S</t>
   </si>
   <si>
-    <t>19BCE1121</t>
-  </si>
-  <si>
     <t>Kulvir Singh</t>
   </si>
   <si>
-    <t>19BCE2074</t>
-  </si>
-  <si>
     <t>Tanmay Bansal</t>
   </si>
   <si>
-    <t>19BCE0421</t>
-  </si>
-  <si>
     <t>Bipul Bainwar</t>
   </si>
   <si>
-    <t>19BCE2636</t>
-  </si>
-  <si>
     <t>Shivansh Tiwari</t>
   </si>
   <si>
-    <t>19BIT0380</t>
-  </si>
-  <si>
     <t>Vinamra Khoria</t>
   </si>
   <si>
-    <t>19BCE0624</t>
-  </si>
-  <si>
     <t>Sujith K P</t>
   </si>
   <si>
-    <t>19BEC1212</t>
-  </si>
-  <si>
     <t>S.M. Satya Sree Narayanan</t>
   </si>
   <si>
-    <t>19BCE1172</t>
-  </si>
-  <si>
     <t>Gunjan Raj Tiwari</t>
   </si>
   <si>
-    <t>19BCE2642</t>
-  </si>
-  <si>
     <t>Ansh Lalwani</t>
   </si>
   <si>
-    <t>19BBS0004</t>
-  </si>
-  <si>
     <t>Arun S</t>
   </si>
   <si>
-    <t>19BCE1106</t>
-  </si>
-  <si>
     <t>Kapil Dhungana</t>
   </si>
   <si>
-    <t>19BCE2658</t>
-  </si>
-  <si>
     <t>Swakshath Rajkumar</t>
   </si>
   <si>
-    <t>19BCI0275</t>
-  </si>
-  <si>
     <t>Japneet Kaur</t>
   </si>
   <si>
-    <t>19BCT0045</t>
-  </si>
-  <si>
     <t>Shourya Gupta</t>
   </si>
   <si>
-    <t>19BCE1704</t>
-  </si>
-  <si>
     <t>Balaji M</t>
   </si>
   <si>
-    <t>19BCE1512</t>
-  </si>
-  <si>
     <t>AMANCHI VENKATA KRISHNA SASHANK</t>
-  </si>
-  <si>
-    <t>19BCE7062</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,20 +115,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.5"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,47 +134,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -287,36 +156,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,379 +445,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
